--- a/DataFiles/DetailsFileTesting.xlsx
+++ b/DataFiles/DetailsFileTesting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10875" yWindow="3780" windowWidth="17925" windowHeight="11100"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17925" windowHeight="9645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>Varibles</t>
   </si>
@@ -82,15 +82,9 @@
     <t>st01R1</t>
   </si>
   <si>
-    <t>D1ST04R2</t>
-  </si>
-  <si>
     <t>st01R2</t>
   </si>
   <si>
-    <t>D1ST05R1</t>
-  </si>
-  <si>
     <t>st01FF1</t>
   </si>
   <si>
@@ -136,45 +130,12 @@
     <t>St2R1</t>
   </si>
   <si>
-    <t>NewResource</t>
-  </si>
-  <si>
     <t>st01FF2</t>
   </si>
   <si>
     <t>St1V3</t>
   </si>
   <si>
-    <t>NewResourceEsc</t>
-  </si>
-  <si>
-    <t>St01M1</t>
-  </si>
-  <si>
-    <t>D1st04m1</t>
-  </si>
-  <si>
-    <t>St01M2</t>
-  </si>
-  <si>
-    <t>D1st04m2</t>
-  </si>
-  <si>
-    <t>St02M1</t>
-  </si>
-  <si>
-    <t>D1ST05m1</t>
-  </si>
-  <si>
-    <t>InfoEventNameForChat</t>
-  </si>
-  <si>
-    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_20.02.2026_054853</t>
-  </si>
-  <si>
-    <t>ManualAlarmNameForChatNewApi</t>
-  </si>
-  <si>
     <t>ManualAlarmNameForChatOldApi</t>
   </si>
   <si>
@@ -187,36 +148,12 @@
     <t>BG_Template alarm Escalate from st 05 to st 04</t>
   </si>
   <si>
-    <t>BG-MA by attribute for extend-19.02.2026_132200</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_19.02.2026_132200</t>
-  </si>
-  <si>
-    <t>BG_Resource_19.02.2026_132200</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_19.02.2026_132200</t>
-  </si>
-  <si>
     <t>Bhupesh 1002</t>
   </si>
   <si>
     <t>d1st04v10</t>
   </si>
   <si>
-    <t>NewTemplate</t>
-  </si>
-  <si>
-    <t>BG_AT by Atrribute_19.02.2026_134910</t>
-  </si>
-  <si>
-    <t>BG_Resource_19.02.2026_134910</t>
-  </si>
-  <si>
-    <t>BG_Escaltion Resource_19.02.2026_134910</t>
-  </si>
-  <si>
     <t>BG-MA by attribute for extend-20.02.2026_073455</t>
   </si>
   <si>
@@ -227,13 +164,39 @@
   </si>
   <si>
     <t>BG_Escaltion Resource_20.02.2026_073455</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_073455</t>
+  </si>
+  <si>
+    <t>D1ST04R02</t>
+  </si>
+  <si>
+    <t>D1ST05R01</t>
+  </si>
+  <si>
+    <t>St01M01</t>
+  </si>
+  <si>
+    <t>D1ST04M01</t>
+  </si>
+  <si>
+    <t>St01M02</t>
+  </si>
+  <si>
+    <t>D1ST04M02</t>
+  </si>
+  <si>
+    <t>St02M01</t>
+  </si>
+  <si>
+    <t>D1ST05M01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -584,235 +547,235 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A32"/>
+      <selection activeCell="B23" activeCellId="1" sqref="B20 B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="52.140625"/>
-    <col min="4" max="4" customWidth="true" width="38.7109375"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="47.140625"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="0">
+      <c r="B9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s" s="0">
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s" s="0">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s" s="0">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s" s="0">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s" s="0">
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s" s="0">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s" s="0">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s" s="0">
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21">
-      <c r="B21" t="s" s="0">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" t="s" s="0">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s" s="0">
-        <v>60</v>
+      <c r="B23" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B24" t="s" s="0">
-        <v>61</v>
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25">
-      <c r="B25" t="s" s="0">
-        <v>69</v>
+    <row r="25" spans="1:6">
+      <c r="B25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>44</v>
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>46</v>
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -820,40 +783,37 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>48</v>
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s" s="0">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="0">
-        <v>66</v>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>53</v>
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s" s="0">
-        <v>54</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>55</v>
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/DataFiles/DetailsFileTesting.xlsx
+++ b/DataFiles/DetailsFileTesting.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Varibles</t>
   </si>
@@ -191,12 +191,28 @@
   </si>
   <si>
     <t>D1ST05M01</t>
+  </si>
+  <si>
+    <t>BG-MA by attribute for extend-20.02.2026_125032</t>
+  </si>
+  <si>
+    <t>BG_AT by Atrribute_20.02.2026_125032</t>
+  </si>
+  <si>
+    <t>BG_Resource_20.02.2026_125032</t>
+  </si>
+  <si>
+    <t>BG_Escaltion Resource_20.02.2026_125032</t>
+  </si>
+  <si>
+    <t>Bg_1 Day Information-Event by Fire fighter (two Station)_21.02.2026_125032</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -552,229 +568,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" customWidth="1"/>
-    <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="69.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="52.140625"/>
+    <col min="4" max="4" customWidth="true" width="38.7109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>11</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>51</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>23</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>29</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>33</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>35</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>51</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:6">
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
-        <v>47</v>
+    <row r="21">
+      <c r="B21" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s" s="0">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>43</v>
       </c>
       <c r="C23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>44</v>
       </c>
       <c r="C24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
-        <v>48</v>
+    <row r="25">
+      <c r="B25" t="s" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>55</v>
       </c>
       <c r="C27" s="3"/>
@@ -783,36 +799,36 @@
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="B29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
-        <v>45</v>
+    <row r="29">
+      <c r="B29" t="s" s="0">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s" s="0">
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>42</v>
       </c>
     </row>
